--- a/result/loading_factor_cleaned.xlsx
+++ b/result/loading_factor_cleaned.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,9 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,603 +442,604 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>BK</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>WB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>BK1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>BK2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.869</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>BK3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.916</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BK4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.882</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BK5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.851</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BK6</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.877</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
         <v>0.838</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
         <v>0.892</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
         <v>0.855</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
         <v>0.864</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
         <v>0.865</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
         <v>0.874</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
         <v>0.828</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
         <v>0.849</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
         <v>0.841</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
         <v>0.842</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n">
         <v>0.834</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n">
         <v>0.878</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
         <v>0.886</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n">
         <v>0.876</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>P6</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n">
         <v>0.878</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>P7</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n">
         <v>0.875</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>P8</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n">
         <v>0.874</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>P9</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n">
         <v>0.844</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>PK1</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="n">
         <v>0.868</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>PK2</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="n">
         <v>0.878</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>PK3</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="n">
         <v>0.866</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>PK4</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>PK5</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>PK6</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>PK7</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="n">
         <v>0.873</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>PK8</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
+      <c r="B36" s="2" t="inlineStr"/>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="n">
         <v>0.863</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>WB1</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n">
         <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>WB2</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n">
         <v>0.844</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>WB3</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n">
         <v>0.828</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>WB4</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n">
         <v>0.826</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>WB5</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="n">
         <v>0.852</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>WB6</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n">
         <v>0.855</v>
       </c>
     </row>

--- a/result/loading_factor_cleaned.xlsx
+++ b/result/loading_factor_cleaned.xlsx
@@ -64,10 +64,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,604 +442,398 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>BK</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>WB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>BK1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>0.86</v>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BK2</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>0.869</v>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>BK3</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>0.916</v>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>BK4</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>0.882</v>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>BK5</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>0.851</v>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>BK6</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>0.877</v>
       </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
+      <c r="A8" s="3" t="inlineStr"/>
+      <c r="B8" s="3" t="n">
         <v>0.838</v>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>D10</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr"/>
-      <c r="C9" s="2" t="n">
+      <c r="A9" s="3" t="inlineStr"/>
+      <c r="B9" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>D11</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
+      <c r="A10" s="3" t="inlineStr"/>
+      <c r="B10" s="3" t="n">
         <v>0.892</v>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="2" t="n">
+      <c r="A11" s="3" t="inlineStr"/>
+      <c r="B11" s="3" t="n">
         <v>0.855</v>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="2" t="n">
+      <c r="A12" s="3" t="inlineStr"/>
+      <c r="B12" s="3" t="n">
         <v>0.864</v>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>D4</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="2" t="n">
+      <c r="A13" s="3" t="inlineStr"/>
+      <c r="B13" s="3" t="n">
         <v>0.865</v>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="2" t="n">
+      <c r="A14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="n">
         <v>0.874</v>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="2" t="n">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="n">
         <v>0.828</v>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="2" t="n">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="n">
         <v>0.849</v>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="2" t="n">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="n">
         <v>0.841</v>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>D9</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="2" t="n">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="n">
         <v>0.842</v>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="n">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="n">
         <v>0.834</v>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="n">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr"/>
+      <c r="C20" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="n">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="n">
         <v>0.878</v>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="n">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr"/>
+      <c r="C22" s="3" t="n">
         <v>0.886</v>
       </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="n">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr"/>
+      <c r="C23" s="3" t="n">
         <v>0.876</v>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="n">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="n">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr"/>
+      <c r="C25" s="3" t="n">
         <v>0.878</v>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr"/>
-      <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="n">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr"/>
+      <c r="C26" s="3" t="n">
         <v>0.875</v>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr"/>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="n">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr"/>
+      <c r="C27" s="3" t="n">
         <v>0.874</v>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr"/>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="n">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr"/>
+      <c r="C28" s="3" t="n">
         <v>0.844</v>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>PK1</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr"/>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="n">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr"/>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="n">
         <v>0.868</v>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>PK2</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr"/>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="n">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr"/>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="n">
         <v>0.878</v>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>PK3</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr"/>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="n">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr"/>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="n">
         <v>0.866</v>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>PK4</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr"/>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="n">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>PK5</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr"/>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="n">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr"/>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>PK6</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr"/>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="n">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>PK7</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr"/>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="n">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr"/>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="n">
         <v>0.873</v>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>PK8</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr"/>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="n">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr"/>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="n">
         <v>0.863</v>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>WB1</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr"/>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="n">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="n">
         <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>WB2</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr"/>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="n">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr"/>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="n">
         <v>0.844</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>WB3</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr"/>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="n">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr"/>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="n">
         <v>0.828</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>WB4</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr"/>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="n">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="n">
         <v>0.826</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>WB5</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr"/>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="n">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr"/>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="n">
         <v>0.852</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>WB6</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr"/>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="n">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr"/>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="n">
         <v>0.855</v>
       </c>
     </row>

--- a/result/loading_factor_cleaned.xlsx
+++ b/result/loading_factor_cleaned.xlsx
@@ -64,10 +64,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,398 +442,604 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>BK</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>WB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>BK1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BK2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>0.869</v>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BK3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>0.916</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>BK4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>0.882</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BK5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>0.851</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>BK6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>0.877</v>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr"/>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
         <v>0.838</v>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr"/>
-      <c r="B9" s="3" t="n">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr"/>
-      <c r="B10" s="3" t="n">
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
         <v>0.892</v>
       </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr"/>
-      <c r="B11" s="3" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
-      <c r="B12" s="3" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
-      <c r="B13" s="3" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
-      <c r="B14" s="3" t="n">
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n">
         <v>0.874</v>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
-      <c r="B15" s="3" t="n">
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>PK1</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="F29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>PK2</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="F30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>PK3</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>PK4</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>PK5</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>PK6</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>PK7</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>PK8</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr"/>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>WB1</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>WB2</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>WB3</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n">
         <v>0.828</v>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
-      <c r="B16" s="3" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
-      <c r="B17" s="3" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
-      <c r="B18" s="3" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
-      <c r="B19" s="3" t="inlineStr"/>
-      <c r="C19" s="3" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr"/>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr"/>
-      <c r="B21" s="3" t="inlineStr"/>
-      <c r="C21" s="3" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr"/>
-      <c r="B22" s="3" t="inlineStr"/>
-      <c r="C22" s="3" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
-      <c r="B23" s="3" t="inlineStr"/>
-      <c r="C23" s="3" t="n">
-        <v>0.876</v>
-      </c>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr"/>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr"/>
-      <c r="B25" s="3" t="inlineStr"/>
-      <c r="C25" s="3" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr"/>
-      <c r="B26" s="3" t="inlineStr"/>
-      <c r="C26" s="3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr"/>
-      <c r="B27" s="3" t="inlineStr"/>
-      <c r="C27" s="3" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr"/>
-      <c r="B28" s="3" t="inlineStr"/>
-      <c r="C28" s="3" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr"/>
-      <c r="B29" s="3" t="inlineStr"/>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="E29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr"/>
-      <c r="B30" s="3" t="inlineStr"/>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="E30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr"/>
-      <c r="B31" s="3" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="E31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
-      <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E34" s="3" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr"/>
-      <c r="B35" s="3" t="inlineStr"/>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="E35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr"/>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="E36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr"/>
-      <c r="B37" s="3" t="inlineStr"/>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
-      <c r="B38" s="3" t="inlineStr"/>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="n">
-        <v>0.844</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
-      <c r="B39" s="3" t="inlineStr"/>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="n">
-        <v>0.828</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
-      <c r="B40" s="3" t="inlineStr"/>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="n">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>WB4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n">
         <v>0.826</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
-      <c r="B41" s="3" t="inlineStr"/>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="n">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>WB5</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="n">
         <v>0.852</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr"/>
-      <c r="B42" s="3" t="inlineStr"/>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="n">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>WB6</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n">
         <v>0.855</v>
       </c>
     </row>
